--- a/2022/Price List/Realme Price List 10.05.2022.xlsx
+++ b/2022/Price List/Realme Price List 10.05.2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Model</t>
   </si>
@@ -244,14 +244,38 @@
     <t xml:space="preserve"> GT NEO 2 (8+128 GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 10-05-2022)</t>
+    <t xml:space="preserve"> (Last Update 19-05-2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C35 (4GB+128GB)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (8GB+128GB)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,8 +370,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -645,6 +682,18 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,13 +884,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>313490</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>41124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>294250</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95362</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -859,7 +908,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="437315" y="10366224"/>
+          <a:off x="437315" y="11375874"/>
           <a:ext cx="4886135" cy="244738"/>
           <a:chOff x="253" y="249"/>
           <a:chExt cx="189" cy="262"/>
@@ -3162,28 +3211,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -3486,10 +3535,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E25"/>
+  <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,28 +3554,28 @@
   <sheetData>
     <row r="1" spans="2:5" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="2:5" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
@@ -3639,39 +3688,39 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="15">
-        <v>12140</v>
-      </c>
-      <c r="D13" s="14">
-        <v>12990</v>
-      </c>
-      <c r="E13" s="24" t="s">
+      <c r="C13" s="30">
+        <v>13090</v>
+      </c>
+      <c r="D13" s="31">
+        <v>13990</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="19">
+        <v>16090</v>
+      </c>
+      <c r="D14" s="18">
+        <v>16990</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="15">
-        <v>21500</v>
-      </c>
-      <c r="D14" s="14">
-        <v>22990</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="15">
-        <v>21270</v>
+        <v>21500</v>
       </c>
       <c r="D15" s="14">
         <v>22990</v>
@@ -3682,130 +3731,154 @@
     </row>
     <row r="16" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="15">
+        <v>23340</v>
+      </c>
+      <c r="D16" s="14">
+        <v>24990</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="19">
+        <v>25190</v>
+      </c>
+      <c r="D17" s="18">
+        <v>26990</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C18" s="15">
         <v>16340</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D18" s="14">
         <v>17490</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="15">
-        <v>18210</v>
-      </c>
-      <c r="D17" s="14">
-        <v>19490</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="15">
-        <v>18790</v>
-      </c>
-      <c r="D18" s="14">
-        <v>19990</v>
       </c>
       <c r="E18" s="24"/>
     </row>
     <row r="19" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C19" s="15">
-        <v>10700</v>
+        <v>18210</v>
       </c>
       <c r="D19" s="14">
-        <v>11290</v>
+        <v>19490</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="15">
+        <v>18790</v>
+      </c>
+      <c r="D20" s="14">
+        <v>19990</v>
+      </c>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="15">
+        <v>10700</v>
+      </c>
+      <c r="D21" s="14">
+        <v>11290</v>
+      </c>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="15">
-        <v>15700</v>
-      </c>
-      <c r="D20" s="14">
-        <v>16499</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="C22" s="30">
+        <v>18050</v>
+      </c>
+      <c r="D22" s="31">
+        <v>18999</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C23" s="30">
         <v>30180</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D23" s="31">
         <v>31990</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E23" s="32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
+    <row r="24" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C24" s="15">
         <v>37340</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D24" s="14">
         <v>39990</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E24" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="28"/>
-    </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="41" t="s">
+    <row r="25" spans="2:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="27"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C26" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="39" t="s">
+      <c r="D26" s="40"/>
+      <c r="E26" s="43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="42"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="40"/>
+    <row r="27" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="46"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B3:E3"/>
   </mergeCells>
@@ -3813,7 +3886,7 @@
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="92" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B24" numberStoredAsText="1"/>
+    <ignoredError sqref="B26" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
